--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value538.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value538.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.198448864282072</v>
+        <v>2.050941467285156</v>
       </c>
       <c r="B1">
-        <v>1.214974159376938</v>
+        <v>2.520928144454956</v>
       </c>
       <c r="C1">
-        <v>1.243121477985782</v>
+        <v>2.623730897903442</v>
       </c>
       <c r="D1">
-        <v>1.632895672856056</v>
+        <v>3.281381845474243</v>
       </c>
       <c r="E1">
-        <v>2.686475167840869</v>
+        <v>0.9419558644294739</v>
       </c>
     </row>
   </sheetData>
